--- a/outputs-HGR-r202-archive/g__Dysosmobacter.xlsx
+++ b/outputs-HGR-r202-archive/g__Dysosmobacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,50 +642,50 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17212.fa</t>
+          <t>even_MAG-GUT24763.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1118281004657192</v>
+        <v>0.004200574308858273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04646966311083468</v>
+        <v>0.03334258257910098</v>
       </c>
       <c r="D4" t="n">
-        <v>8.728864389783447e-05</v>
+        <v>0.0003803765524407717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1837713842789321</v>
+        <v>0.03555715473165114</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002359755241915357</v>
+        <v>0.0001262185488183286</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003814234403024524</v>
+        <v>0.03258709331631168</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01449583295958545</v>
+        <v>0.003535109969381482</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06029909912273346</v>
+        <v>0.01526250340353058</v>
       </c>
       <c r="J4" t="n">
-        <v>0.006787948902290382</v>
+        <v>0.004940275849755885</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1503220099258892</v>
+        <v>0.2115687358835532</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004908609376125679</v>
+        <v>8.141197606052391e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006325854479000768</v>
+        <v>0.04116710739428323</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4106539988077753</v>
+        <v>0.617250855486254</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4106539988077753</v>
+        <v>0.617250855486254</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -701,109 +701,109 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24763.fa</t>
+          <t>even_MAG-GUT31431.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004200574308858273</v>
+        <v>0.007205060000289277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03334258257910098</v>
+        <v>0.646059963258837</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003803765524407717</v>
+        <v>0.006860017122996533</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03555715473165114</v>
+        <v>0.265233915400522</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0001262185488183286</v>
+        <v>0.01714632267761114</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03258709331631168</v>
+        <v>0.0001711100647403436</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003535109969381482</v>
+        <v>0.01374962771997336</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01526250340353058</v>
+        <v>0.003190556064480855</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004940275849755885</v>
+        <v>0.006615138541581178</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2115687358835532</v>
+        <v>0.01450426299258967</v>
       </c>
       <c r="L5" t="n">
-        <v>8.141197606052391e-05</v>
+        <v>0.0002168112355091525</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04116710739428323</v>
+        <v>0.00217485888298604</v>
       </c>
       <c r="N5" t="n">
-        <v>0.617250855486254</v>
+        <v>0.01687235603788356</v>
       </c>
       <c r="O5" t="n">
-        <v>0.617250855486254</v>
+        <v>0.646059963258837</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>s__Dysosmobacter welbionis</t>
+          <t>s__Dysosmobacter sp001916835</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>s__Dysosmobacter welbionis</t>
+          <t>s__Dysosmobacter sp001916835</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31431.fa</t>
+          <t>even_MAG-GUT34932.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.007205060000289277</v>
+        <v>0.001173010073987119</v>
       </c>
       <c r="C6" t="n">
-        <v>0.646059963258837</v>
+        <v>0.7141921639292358</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006860017122996533</v>
+        <v>0.003054053917446964</v>
       </c>
       <c r="E6" t="n">
-        <v>0.265233915400522</v>
+        <v>0.1809879235923866</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01714632267761114</v>
+        <v>0.02976226343066188</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001711100647403436</v>
+        <v>0.000245726109881417</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01374962771997336</v>
+        <v>0.002909494145798648</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003190556064480855</v>
+        <v>0.002664795951479863</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006615138541581178</v>
+        <v>0.05050450923870224</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01450426299258967</v>
+        <v>0.0008873986955598804</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002168112355091525</v>
+        <v>3.507886912112987e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00217485888298604</v>
+        <v>0.003329420502386357</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01687235603788356</v>
+        <v>0.01025416154335217</v>
       </c>
       <c r="O6" t="n">
-        <v>0.646059963258837</v>
+        <v>0.7141921639292358</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -819,109 +819,109 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34932.fa</t>
+          <t>even_MAG-GUT3853.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001173010073987119</v>
+        <v>0.0484559940882568</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7141921639292358</v>
+        <v>0.005689680858044226</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003054053917446964</v>
+        <v>8.211517729638544e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1809879235923866</v>
+        <v>0.01022398890582535</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02976226343066188</v>
+        <v>4.161764946830481e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000245726109881417</v>
+        <v>0.01185875989420495</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002909494145798648</v>
+        <v>0.0002169467949130992</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002664795951479863</v>
+        <v>0.003388492464950908</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05050450923870224</v>
+        <v>0.0008941208653430339</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0008873986955598804</v>
+        <v>0.01230595727726975</v>
       </c>
       <c r="L7" t="n">
-        <v>3.507886912112987e-05</v>
+        <v>0.00226602957691787</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003329420502386357</v>
+        <v>0.2069701803044025</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01025416154335217</v>
+        <v>0.697606116143107</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7141921639292358</v>
+        <v>0.697606116143107</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>s__Dysosmobacter sp001916835</t>
+          <t>s__Dysosmobacter welbionis</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>s__Dysosmobacter sp001916835</t>
+          <t>s__Dysosmobacter welbionis</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3853.fa</t>
+          <t>even_MAG-GUT39512.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0484559940882568</v>
+        <v>0.01481714522936278</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005689680858044226</v>
+        <v>0.008086402547272517</v>
       </c>
       <c r="D8" t="n">
-        <v>8.211517729638544e-05</v>
+        <v>0.00042479956834376</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01022398890582535</v>
+        <v>0.03327092181291805</v>
       </c>
       <c r="F8" t="n">
-        <v>4.161764946830481e-05</v>
+        <v>7.605976146563928e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01185875989420495</v>
+        <v>0.03848473520603365</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002169467949130992</v>
+        <v>0.000163501368367313</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003388492464950908</v>
+        <v>0.02478340482815145</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0008941208653430339</v>
+        <v>0.002962897623985734</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01230595727726975</v>
+        <v>0.0877948289816044</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00226602957691787</v>
+        <v>0.002731656026240631</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2069701803044025</v>
+        <v>0.1091338525640501</v>
       </c>
       <c r="N8" t="n">
-        <v>0.697606116143107</v>
+        <v>0.677269794482204</v>
       </c>
       <c r="O8" t="n">
-        <v>0.697606116143107</v>
+        <v>0.677269794482204</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -937,50 +937,50 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39512.fa</t>
+          <t>even_MAG-GUT57684.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01481714522936278</v>
+        <v>0.03172206772637753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008086402547272517</v>
+        <v>0.03335576746389379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00042479956834376</v>
+        <v>8.640574147939139e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03327092181291805</v>
+        <v>0.008963526385661754</v>
       </c>
       <c r="F9" t="n">
-        <v>7.605976146563928e-05</v>
+        <v>0.0003222951544537725</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03848473520603365</v>
+        <v>0.0002659323114621318</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000163501368367313</v>
+        <v>0.01285734004747089</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02478340482815145</v>
+        <v>0.001261167836318133</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002962897623985734</v>
+        <v>0.05081678970558907</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0877948289816044</v>
+        <v>0.0111128340053959</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002731656026240631</v>
+        <v>0.005224014612760882</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1091338525640501</v>
+        <v>0.00261828145411588</v>
       </c>
       <c r="N9" t="n">
-        <v>0.677269794482204</v>
+        <v>0.8413935775550209</v>
       </c>
       <c r="O9" t="n">
-        <v>0.677269794482204</v>
+        <v>0.8413935775550209</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -996,175 +996,116 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57684.fa</t>
+          <t>even_MAG-GUT8612.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03172206772637753</v>
+        <v>0.01378948176969377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03335576746389379</v>
+        <v>0.6471359346293387</v>
       </c>
       <c r="D10" t="n">
-        <v>8.640574147939139e-05</v>
+        <v>0.001395944253993369</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008963526385661754</v>
+        <v>0.2174609991686798</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0003222951544537725</v>
+        <v>0.008619325497646506</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002659323114621318</v>
+        <v>2.232837795063998e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01285734004747089</v>
+        <v>0.002084770032126038</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001261167836318133</v>
+        <v>0.002120158069024223</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05081678970558907</v>
+        <v>0.09155580655077061</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0111128340053959</v>
+        <v>0.001167169742099558</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005224014612760882</v>
+        <v>2.035043699868959e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00261828145411588</v>
+        <v>0.001746847638202336</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8413935775550209</v>
+        <v>0.01288088383347594</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8413935775550209</v>
+        <v>0.6471359346293387</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>s__Dysosmobacter welbionis</t>
+          <t>s__Dysosmobacter sp001916835</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>s__Dysosmobacter welbionis</t>
+          <t>s__Dysosmobacter sp001916835</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT8612.fa</t>
+          <t>even_MAG-GUT9113.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01378948176969377</v>
+        <v>0.01709396895349626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6471359346293387</v>
+        <v>0.01121899244224691</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001395944253993369</v>
+        <v>0.000147977837113263</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2174609991686798</v>
+        <v>0.01795450567809141</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008619325497646506</v>
+        <v>6.913194129108705e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>2.232837795063998e-05</v>
+        <v>0.001936422802495562</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002084770032126038</v>
+        <v>0.01003663089581751</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002120158069024223</v>
+        <v>0.00182111300988838</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09155580655077061</v>
+        <v>0.02698018129265136</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001167169742099558</v>
+        <v>0.06685091858361301</v>
       </c>
       <c r="L11" t="n">
-        <v>2.035043699868959e-05</v>
+        <v>0.01845437584749463</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001746847638202336</v>
+        <v>0.03070452109797221</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01288088383347594</v>
+        <v>0.7967312596178284</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6471359346293387</v>
+        <v>0.7967312596178284</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>s__Dysosmobacter sp001916835</t>
+          <t>s__Dysosmobacter welbionis</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
-        <is>
-          <t>s__Dysosmobacter sp001916835</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9113.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.01709396895349626</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.01121899244224691</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.000147977837113263</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.01795450567809141</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6.913194129108705e-05</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.001936422802495562</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.01003663089581751</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.00182111300988838</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.02698018129265136</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.06685091858361301</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.01845437584749463</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.03070452109797221</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.7967312596178284</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.7967312596178284</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>s__Dysosmobacter welbionis</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
         <is>
           <t>s__Dysosmobacter welbionis</t>
         </is>
